--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Bartronics India Ltd/Pruned_Excel/Final_Parameters/Bartronics India Ltd_Cleaned_Data.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Bartronics India Ltd/Pruned_Excel/Final_Parameters/Bartronics India Ltd_Cleaned_Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="219">
   <si>
     <t>Balance Sheet of Bartronics India(in Rs. Cr.)</t>
   </si>
@@ -362,6 +362,9 @@
     <t>P/l before exceptional items &amp; tax</t>
   </si>
   <si>
+    <t>Exceptional items</t>
+  </si>
+  <si>
     <t>P/l before tax</t>
   </si>
   <si>
@@ -540,6 +543,9 @@
   </si>
   <si>
     <t>P/L Before Exceptional Items &amp; Tax</t>
+  </si>
+  <si>
+    <t>Exceptional Items</t>
   </si>
   <si>
     <t>P/L Before Tax</t>
@@ -4101,13 +4107,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
@@ -4168,19 +4174,22 @@
       <c r="T1" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
         <v>109</v>
@@ -4189,51 +4198,54 @@
         <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H2" t="s">
         <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J2" t="s">
         <v>112</v>
       </c>
       <c r="K2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M2" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="N2" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="O2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>182</v>
+      </c>
+      <c r="U2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>5.47</v>
@@ -4265,23 +4277,20 @@
       <c r="K3">
         <v>-38.26</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-38.26</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-7.03</v>
-      </c>
-      <c r="N3">
-        <v>-31.23</v>
       </c>
       <c r="O3">
         <v>-31.23</v>
       </c>
       <c r="P3">
+        <v>-31.23</v>
+      </c>
+      <c r="Q3">
         <v>34.05</v>
-      </c>
-      <c r="Q3">
-        <v>-9.17</v>
       </c>
       <c r="R3">
         <v>-9.17</v>
@@ -4292,10 +4301,13 @@
       <c r="T3">
         <v>-9.17</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>-9.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>4.42</v>
@@ -4327,23 +4339,20 @@
       <c r="K4">
         <v>-14.08</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-14.08</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>-14.11</v>
-      </c>
-      <c r="N4">
-        <v>0.03</v>
       </c>
       <c r="O4">
         <v>0.03</v>
       </c>
       <c r="P4">
+        <v>0.03</v>
+      </c>
+      <c r="Q4">
         <v>34.05</v>
-      </c>
-      <c r="Q4">
-        <v>0.01</v>
       </c>
       <c r="R4">
         <v>0.01</v>
@@ -4354,10 +4363,13 @@
       <c r="T4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>1.79</v>
@@ -4389,23 +4401,20 @@
       <c r="K5">
         <v>9.16</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>9.16</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>-10.41</v>
-      </c>
-      <c r="N5">
-        <v>19.58</v>
       </c>
       <c r="O5">
         <v>19.58</v>
       </c>
       <c r="P5">
+        <v>19.58</v>
+      </c>
+      <c r="Q5">
         <v>34.05</v>
-      </c>
-      <c r="Q5">
-        <v>5.75</v>
       </c>
       <c r="R5">
         <v>5.75</v>
@@ -4416,10 +4425,13 @@
       <c r="T5">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>5.18</v>
@@ -4451,23 +4463,20 @@
       <c r="K6">
         <v>-22.53</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-22.53</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-2.66</v>
-      </c>
-      <c r="N6">
-        <v>-19.88</v>
       </c>
       <c r="O6">
         <v>-19.88</v>
       </c>
       <c r="P6">
+        <v>-19.88</v>
+      </c>
+      <c r="Q6">
         <v>34.05</v>
-      </c>
-      <c r="Q6">
-        <v>-5.84</v>
       </c>
       <c r="R6">
         <v>-5.84</v>
@@ -4478,10 +4487,13 @@
       <c r="T6">
         <v>-5.84</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6">
+        <v>-5.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7">
         <v>11.23</v>
@@ -4513,23 +4525,20 @@
       <c r="K7">
         <v>-35.41</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-35.41</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-2.94</v>
-      </c>
-      <c r="N7">
-        <v>-32.48</v>
       </c>
       <c r="O7">
         <v>-32.48</v>
       </c>
       <c r="P7">
+        <v>-32.48</v>
+      </c>
+      <c r="Q7">
         <v>34.05</v>
-      </c>
-      <c r="Q7">
-        <v>-9.539999999999999</v>
       </c>
       <c r="R7">
         <v>-9.539999999999999</v>
@@ -4540,10 +4549,13 @@
       <c r="T7">
         <v>-9.539999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7">
+        <v>-9.539999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <v>6.18</v>
@@ -4575,23 +4587,20 @@
       <c r="K8">
         <v>-7.74</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-7.74</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-1.39</v>
-      </c>
-      <c r="N8">
-        <v>-6.35</v>
       </c>
       <c r="O8">
         <v>-6.35</v>
       </c>
       <c r="P8">
+        <v>-6.35</v>
+      </c>
+      <c r="Q8">
         <v>34.05</v>
-      </c>
-      <c r="Q8">
-        <v>-1.86</v>
       </c>
       <c r="R8">
         <v>-1.86</v>
@@ -4602,10 +4611,13 @@
       <c r="T8">
         <v>-1.86</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8">
+        <v>-1.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9">
         <v>4.01</v>
@@ -4637,25 +4649,25 @@
       <c r="K9">
         <v>-1.94</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-1.94</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-1.96</v>
-      </c>
-      <c r="N9">
-        <v>0.01</v>
       </c>
       <c r="O9">
         <v>0.01</v>
       </c>
       <c r="P9">
+        <v>0.01</v>
+      </c>
+      <c r="Q9">
         <v>34.05</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10">
         <v>9.4</v>
@@ -4688,22 +4700,22 @@
         <v>-2.43</v>
       </c>
       <c r="L10">
+        <v>-0.04</v>
+      </c>
+      <c r="M10">
         <v>-2.46</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-0.73</v>
-      </c>
-      <c r="N10">
-        <v>-1.73</v>
       </c>
       <c r="O10">
         <v>-1.73</v>
       </c>
       <c r="P10">
+        <v>-1.73</v>
+      </c>
+      <c r="Q10">
         <v>34.05</v>
-      </c>
-      <c r="Q10">
-        <v>-0.51</v>
       </c>
       <c r="R10">
         <v>-0.51</v>
@@ -4714,10 +4726,13 @@
       <c r="T10">
         <v>-0.51</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11">
         <v>8.210000000000001</v>
@@ -4749,23 +4764,20 @@
       <c r="K11">
         <v>-10.86</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-10.86</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-1.11</v>
-      </c>
-      <c r="N11">
-        <v>-9.75</v>
       </c>
       <c r="O11">
         <v>-9.75</v>
       </c>
       <c r="P11">
+        <v>-9.75</v>
+      </c>
+      <c r="Q11">
         <v>34.05</v>
-      </c>
-      <c r="Q11">
-        <v>-2.86</v>
       </c>
       <c r="R11">
         <v>-2.86</v>
@@ -4776,10 +4788,13 @@
       <c r="T11">
         <v>-2.86</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>-2.86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12">
         <v>7.24</v>
@@ -4811,23 +4826,20 @@
       <c r="K12">
         <v>-21.84</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-21.84</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.68</v>
-      </c>
-      <c r="N12">
-        <v>-22.52</v>
       </c>
       <c r="O12">
         <v>-22.52</v>
       </c>
       <c r="P12">
+        <v>-22.52</v>
+      </c>
+      <c r="Q12">
         <v>34.05</v>
-      </c>
-      <c r="Q12">
-        <v>-6.61</v>
       </c>
       <c r="R12">
         <v>-6.61</v>
@@ -4838,10 +4850,13 @@
       <c r="T12">
         <v>-6.61</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12">
+        <v>-6.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13">
         <v>11.23</v>
@@ -4873,23 +4888,20 @@
       <c r="K13">
         <v>-14.67</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-14.67</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1.84</v>
-      </c>
-      <c r="N13">
-        <v>-16.51</v>
       </c>
       <c r="O13">
         <v>-16.51</v>
       </c>
       <c r="P13">
+        <v>-16.51</v>
+      </c>
+      <c r="Q13">
         <v>34.05</v>
-      </c>
-      <c r="Q13">
-        <v>-4.85</v>
       </c>
       <c r="R13">
         <v>-4.85</v>
@@ -4900,10 +4912,13 @@
       <c r="T13">
         <v>-4.85</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13">
+        <v>-4.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14">
         <v>19.87</v>
@@ -4935,23 +4950,20 @@
       <c r="K14">
         <v>-5.99</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-5.99</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.43</v>
-      </c>
-      <c r="N14">
-        <v>-6.41</v>
       </c>
       <c r="O14">
         <v>-6.41</v>
       </c>
       <c r="P14">
+        <v>-6.41</v>
+      </c>
+      <c r="Q14">
         <v>34.05</v>
-      </c>
-      <c r="Q14">
-        <v>-1.88</v>
       </c>
       <c r="R14">
         <v>-1.88</v>
@@ -4962,10 +4974,13 @@
       <c r="T14">
         <v>-1.88</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14">
+        <v>-1.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15">
         <v>17.85</v>
@@ -4997,23 +5012,20 @@
       <c r="K15">
         <v>-16.2</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-16.2</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-0.4</v>
-      </c>
-      <c r="N15">
-        <v>-15.8</v>
       </c>
       <c r="O15">
         <v>-15.8</v>
       </c>
       <c r="P15">
+        <v>-15.8</v>
+      </c>
+      <c r="Q15">
         <v>34.05</v>
-      </c>
-      <c r="Q15">
-        <v>-4.64</v>
       </c>
       <c r="R15">
         <v>-4.64</v>
@@ -5024,10 +5036,13 @@
       <c r="T15">
         <v>-4.64</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15">
+        <v>-4.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16">
         <v>16.57</v>
@@ -5060,22 +5075,22 @@
         <v>-8.02</v>
       </c>
       <c r="L16">
+        <v>-3.54</v>
+      </c>
+      <c r="M16">
         <v>-11.57</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-1.05</v>
-      </c>
-      <c r="N16">
-        <v>-10.52</v>
       </c>
       <c r="O16">
         <v>-10.52</v>
       </c>
       <c r="P16">
+        <v>-10.52</v>
+      </c>
+      <c r="Q16">
         <v>34.05</v>
-      </c>
-      <c r="Q16">
-        <v>-3.09</v>
       </c>
       <c r="R16">
         <v>-3.09</v>
@@ -5086,10 +5101,13 @@
       <c r="T16">
         <v>-3.09</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16">
+        <v>-3.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17">
         <v>14.13</v>
@@ -5122,22 +5140,22 @@
         <v>-7.42</v>
       </c>
       <c r="L17">
+        <v>-0.01</v>
+      </c>
+      <c r="M17">
         <v>-7.43</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-2.25</v>
-      </c>
-      <c r="N17">
-        <v>-5.18</v>
       </c>
       <c r="O17">
         <v>-5.18</v>
       </c>
       <c r="P17">
+        <v>-5.18</v>
+      </c>
+      <c r="Q17">
         <v>34.05</v>
-      </c>
-      <c r="Q17">
-        <v>-1.52</v>
       </c>
       <c r="R17">
         <v>-1.52</v>
@@ -5148,10 +5166,13 @@
       <c r="T17">
         <v>-1.52</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17">
+        <v>-1.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18">
         <v>17.32</v>
@@ -5183,23 +5204,20 @@
       <c r="K18">
         <v>-18.8</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-18.8</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-0.9399999999999999</v>
-      </c>
-      <c r="N18">
-        <v>-17.86</v>
       </c>
       <c r="O18">
         <v>-17.86</v>
       </c>
       <c r="P18">
+        <v>-17.86</v>
+      </c>
+      <c r="Q18">
         <v>34.05</v>
-      </c>
-      <c r="Q18">
-        <v>-5.25</v>
       </c>
       <c r="R18">
         <v>-5.25</v>
@@ -5210,10 +5228,13 @@
       <c r="T18">
         <v>-5.25</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18">
+        <v>-5.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19">
         <v>15.74</v>
@@ -5245,23 +5266,20 @@
       <c r="K19">
         <v>-8.77</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-8.77</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-1.37</v>
-      </c>
-      <c r="N19">
-        <v>-7.4</v>
       </c>
       <c r="O19">
         <v>-7.4</v>
       </c>
       <c r="P19">
+        <v>-7.4</v>
+      </c>
+      <c r="Q19">
         <v>34.05</v>
-      </c>
-      <c r="Q19">
-        <v>-2.17</v>
       </c>
       <c r="R19">
         <v>-2.17</v>
@@ -5272,10 +5290,13 @@
       <c r="T19">
         <v>-2.17</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19">
+        <v>-2.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5307,23 +5328,20 @@
       <c r="K20">
         <v>-8.109999999999999</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-8.109999999999999</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.48</v>
-      </c>
-      <c r="N20">
-        <v>-8.59</v>
       </c>
       <c r="O20">
         <v>-8.59</v>
       </c>
       <c r="P20">
+        <v>-8.59</v>
+      </c>
+      <c r="Q20">
         <v>34.05</v>
-      </c>
-      <c r="Q20">
-        <v>-2.52</v>
       </c>
       <c r="R20">
         <v>-2.52</v>
@@ -5334,10 +5352,13 @@
       <c r="T20">
         <v>-2.52</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20">
+        <v>-2.52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21">
         <v>18.31</v>
@@ -5369,23 +5390,20 @@
       <c r="K21">
         <v>-24.7</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-24.7</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.63</v>
-      </c>
-      <c r="N21">
-        <v>-25.33</v>
       </c>
       <c r="O21">
         <v>-25.33</v>
       </c>
       <c r="P21">
+        <v>-25.33</v>
+      </c>
+      <c r="Q21">
         <v>34.05</v>
-      </c>
-      <c r="Q21">
-        <v>-7.44</v>
       </c>
       <c r="R21">
         <v>-7.44</v>
@@ -5396,10 +5414,13 @@
       <c r="T21">
         <v>-7.44</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21">
+        <v>-7.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22">
         <v>18.9</v>
@@ -5431,23 +5452,20 @@
       <c r="K22">
         <v>-7.78</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-7.78</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1.43</v>
-      </c>
-      <c r="N22">
-        <v>-9.210000000000001</v>
       </c>
       <c r="O22">
         <v>-9.210000000000001</v>
       </c>
       <c r="P22">
+        <v>-9.210000000000001</v>
+      </c>
+      <c r="Q22">
         <v>34.05</v>
-      </c>
-      <c r="Q22">
-        <v>-2.58</v>
       </c>
       <c r="R22">
         <v>-2.58</v>
@@ -5458,10 +5476,13 @@
       <c r="T22">
         <v>-2.58</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22">
+        <v>-2.58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23">
         <v>18.72</v>
@@ -5493,23 +5514,20 @@
       <c r="K23">
         <v>-12.71</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-12.71</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-0.15</v>
-      </c>
-      <c r="N23">
-        <v>-12.56</v>
       </c>
       <c r="O23">
         <v>-12.56</v>
       </c>
       <c r="P23">
+        <v>-12.56</v>
+      </c>
+      <c r="Q23">
         <v>34.05</v>
-      </c>
-      <c r="Q23">
-        <v>-8.26</v>
       </c>
       <c r="R23">
         <v>-8.26</v>
@@ -5520,10 +5538,13 @@
       <c r="T23">
         <v>-8.26</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23">
+        <v>-8.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B24">
         <v>20.74</v>
@@ -5555,23 +5576,20 @@
       <c r="K24">
         <v>-34.43</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-34.43</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-0.18</v>
-      </c>
-      <c r="N24">
-        <v>-34.26</v>
       </c>
       <c r="O24">
         <v>-34.26</v>
       </c>
       <c r="P24">
+        <v>-34.26</v>
+      </c>
+      <c r="Q24">
         <v>34.05</v>
-      </c>
-      <c r="Q24">
-        <v>-3.77</v>
       </c>
       <c r="R24">
         <v>-3.77</v>
@@ -5582,10 +5600,13 @@
       <c r="T24">
         <v>-3.77</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24">
+        <v>-3.77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B25">
         <v>12.98</v>
@@ -5614,23 +5635,20 @@
       <c r="K25">
         <v>-16.61</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-16.61</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-0.14</v>
-      </c>
-      <c r="N25">
-        <v>-16.47</v>
       </c>
       <c r="O25">
         <v>-16.47</v>
       </c>
       <c r="P25">
+        <v>-16.47</v>
+      </c>
+      <c r="Q25">
         <v>34.05</v>
-      </c>
-      <c r="Q25">
-        <v>0.45</v>
       </c>
       <c r="R25">
         <v>0.45</v>
@@ -5641,10 +5659,13 @@
       <c r="T25">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B26">
         <v>21.52</v>
@@ -5673,23 +5694,20 @@
       <c r="K26">
         <v>-11.5</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>-11.5</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-0.07000000000000001</v>
-      </c>
-      <c r="N26">
-        <v>-11.43</v>
       </c>
       <c r="O26">
         <v>-11.43</v>
       </c>
       <c r="P26">
+        <v>-11.43</v>
+      </c>
+      <c r="Q26">
         <v>34.05</v>
-      </c>
-      <c r="Q26">
-        <v>-4.1</v>
       </c>
       <c r="R26">
         <v>-4.1</v>
@@ -5700,10 +5718,13 @@
       <c r="T26">
         <v>-4.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26">
+        <v>-4.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B27">
         <v>19.56</v>
@@ -5735,23 +5756,20 @@
       <c r="K27">
         <v>-9.94</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-9.94</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-7.28</v>
-      </c>
-      <c r="N27">
-        <v>-2.65</v>
       </c>
       <c r="O27">
         <v>-2.65</v>
       </c>
       <c r="P27">
+        <v>-2.65</v>
+      </c>
+      <c r="Q27">
         <v>34.05</v>
-      </c>
-      <c r="Q27">
-        <v>-0.96</v>
       </c>
       <c r="R27">
         <v>-0.96</v>
@@ -5762,10 +5780,13 @@
       <c r="T27">
         <v>-0.96</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27">
+        <v>-0.96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B28">
         <v>13.13</v>
@@ -5797,23 +5818,20 @@
       <c r="K28">
         <v>-13.53</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-13.53</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-0.13</v>
-      </c>
-      <c r="N28">
-        <v>-13.41</v>
       </c>
       <c r="O28">
         <v>-13.41</v>
       </c>
       <c r="P28">
+        <v>-13.41</v>
+      </c>
+      <c r="Q28">
         <v>34.05</v>
-      </c>
-      <c r="Q28">
-        <v>-2.78</v>
       </c>
       <c r="R28">
         <v>-2.78</v>
@@ -5824,10 +5842,13 @@
       <c r="T28">
         <v>-2.78</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28">
+        <v>-2.78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B29">
         <v>17.95</v>
@@ -5859,34 +5880,34 @@
       <c r="K29">
         <v>-8.539999999999999</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-8.539999999999999</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>4.71</v>
-      </c>
-      <c r="N29">
-        <v>-13.26</v>
       </c>
       <c r="O29">
         <v>-13.26</v>
       </c>
       <c r="P29">
+        <v>-13.26</v>
+      </c>
+      <c r="Q29">
         <v>34.05</v>
-      </c>
-      <c r="Q29">
-        <v>-1.47</v>
       </c>
       <c r="R29">
         <v>-1.47</v>
       </c>
-      <c r="T29">
+      <c r="S29">
         <v>-1.47</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29">
+        <v>-1.47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B30">
         <v>15.33</v>
@@ -5918,23 +5939,20 @@
       <c r="K30">
         <v>-12.83</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-12.83</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.15</v>
-      </c>
-      <c r="N30">
-        <v>-12.98</v>
       </c>
       <c r="O30">
         <v>-12.98</v>
       </c>
       <c r="P30">
+        <v>-12.98</v>
+      </c>
+      <c r="Q30">
         <v>34.05</v>
-      </c>
-      <c r="Q30">
-        <v>-4.74</v>
       </c>
       <c r="R30">
         <v>-4.74</v>
@@ -5945,10 +5963,13 @@
       <c r="T30">
         <v>-4.74</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30">
+        <v>-4.74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B31">
         <v>14.39</v>
@@ -5980,31 +6001,31 @@
       <c r="K31">
         <v>-12.88</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-12.88</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-0.12</v>
-      </c>
-      <c r="N31">
-        <v>-12.76</v>
       </c>
       <c r="O31">
         <v>-12.76</v>
       </c>
       <c r="P31">
+        <v>-12.76</v>
+      </c>
+      <c r="Q31">
         <v>34.05</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-3.75</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-3.75</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B32">
         <v>15.41</v>
@@ -6036,23 +6057,20 @@
       <c r="K32">
         <v>-13.28</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-13.28</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-0.1</v>
-      </c>
-      <c r="N32">
-        <v>-13.18</v>
       </c>
       <c r="O32">
         <v>-13.18</v>
       </c>
       <c r="P32">
+        <v>-13.18</v>
+      </c>
+      <c r="Q32">
         <v>34.05</v>
-      </c>
-      <c r="Q32">
-        <v>-1.5</v>
       </c>
       <c r="R32">
         <v>-1.5</v>
@@ -6063,10 +6081,13 @@
       <c r="T32">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B33">
         <v>16.29</v>
@@ -6098,23 +6119,20 @@
       <c r="K33">
         <v>-12.61</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-12.61</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>-0.14</v>
-      </c>
-      <c r="N33">
-        <v>-12.46</v>
       </c>
       <c r="O33">
         <v>-12.46</v>
       </c>
       <c r="P33">
+        <v>-12.46</v>
+      </c>
+      <c r="Q33">
         <v>34.05</v>
-      </c>
-      <c r="Q33">
-        <v>-3.42</v>
       </c>
       <c r="R33">
         <v>-3.42</v>
@@ -6125,10 +6143,13 @@
       <c r="T33">
         <v>-3.42</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="U33">
+        <v>-3.42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B34">
         <v>16.22</v>
@@ -6160,23 +6181,20 @@
       <c r="K34">
         <v>-12.66</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-12.66</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>-0.14</v>
-      </c>
-      <c r="N34">
-        <v>-12.52</v>
       </c>
       <c r="O34">
         <v>-12.52</v>
       </c>
       <c r="P34">
+        <v>-12.52</v>
+      </c>
+      <c r="Q34">
         <v>34.05</v>
-      </c>
-      <c r="Q34">
-        <v>-3.8</v>
       </c>
       <c r="R34">
         <v>-3.8</v>
@@ -6187,10 +6205,13 @@
       <c r="T34">
         <v>-3.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="U34">
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B35">
         <v>14.82</v>
@@ -6222,23 +6243,20 @@
       <c r="K35">
         <v>-13.31</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>-13.31</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>-0.15</v>
-      </c>
-      <c r="N35">
-        <v>-13.16</v>
       </c>
       <c r="O35">
         <v>-13.16</v>
       </c>
       <c r="P35">
+        <v>-13.16</v>
+      </c>
+      <c r="Q35">
         <v>34.05</v>
-      </c>
-      <c r="Q35">
-        <v>-2.37</v>
       </c>
       <c r="R35">
         <v>-2.37</v>
@@ -6249,10 +6267,13 @@
       <c r="T35">
         <v>-2.37</v>
       </c>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="U35">
+        <v>-2.37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B36">
         <v>18.2</v>
@@ -6284,23 +6305,20 @@
       <c r="K36">
         <v>-12.03</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>-12.03</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>-1.17</v>
-      </c>
-      <c r="N36">
-        <v>-10.86</v>
       </c>
       <c r="O36">
         <v>-10.86</v>
       </c>
       <c r="P36">
+        <v>-10.86</v>
+      </c>
+      <c r="Q36">
         <v>34.05</v>
-      </c>
-      <c r="Q36">
-        <v>-2.78</v>
       </c>
       <c r="R36">
         <v>-2.78</v>
@@ -6311,10 +6329,13 @@
       <c r="T36">
         <v>-2.78</v>
       </c>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="U36">
+        <v>-2.78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B37">
         <v>18.23</v>
@@ -6346,23 +6367,20 @@
       <c r="K37">
         <v>-12.31</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>-12.31</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>-0.15</v>
-      </c>
-      <c r="N37">
-        <v>-12.16</v>
       </c>
       <c r="O37">
         <v>-12.16</v>
       </c>
       <c r="P37">
+        <v>-12.16</v>
+      </c>
+      <c r="Q37">
         <v>34.05</v>
-      </c>
-      <c r="Q37">
-        <v>-1.72</v>
       </c>
       <c r="R37">
         <v>-1.72</v>
@@ -6373,10 +6391,13 @@
       <c r="T37">
         <v>-1.72</v>
       </c>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="U37">
+        <v>-1.72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B38">
         <v>11.47</v>
@@ -6405,23 +6426,20 @@
       <c r="K38">
         <v>-1.16</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>-1.16</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>-0.16</v>
-      </c>
-      <c r="N38">
-        <v>-1</v>
       </c>
       <c r="O38">
         <v>-1</v>
       </c>
       <c r="P38">
+        <v>-1</v>
+      </c>
+      <c r="Q38">
         <v>30.46</v>
-      </c>
-      <c r="Q38">
-        <v>-0.33</v>
       </c>
       <c r="R38">
         <v>-0.33</v>
@@ -6432,10 +6450,13 @@
       <c r="T38">
         <v>-0.33</v>
       </c>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="U38">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B39">
         <v>13.73</v>
@@ -6467,23 +6488,20 @@
       <c r="K39">
         <v>-13.07</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>-13.07</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>-0.17</v>
-      </c>
-      <c r="N39">
-        <v>-12.9</v>
       </c>
       <c r="O39">
         <v>-12.9</v>
       </c>
       <c r="P39">
+        <v>-12.9</v>
+      </c>
+      <c r="Q39">
         <v>34.05</v>
-      </c>
-      <c r="Q39">
-        <v>-3.79</v>
       </c>
       <c r="R39">
         <v>-3.79</v>
@@ -6494,10 +6512,13 @@
       <c r="T39">
         <v>-3.79</v>
       </c>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="U39">
+        <v>-3.79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B40">
         <v>15.37</v>
@@ -6529,23 +6550,20 @@
       <c r="K40">
         <v>-12.83</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>-12.83</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>0.74</v>
-      </c>
-      <c r="N40">
-        <v>-13.58</v>
       </c>
       <c r="O40">
         <v>-13.58</v>
       </c>
       <c r="P40">
+        <v>-13.58</v>
+      </c>
+      <c r="Q40">
         <v>34.05</v>
-      </c>
-      <c r="Q40">
-        <v>-0.92</v>
       </c>
       <c r="R40">
         <v>-0.92</v>
@@ -6556,10 +6574,13 @@
       <c r="T40">
         <v>-0.92</v>
       </c>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="U40">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B41">
         <v>12.07</v>
@@ -6591,23 +6612,20 @@
       <c r="K41">
         <v>0.51</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>0.51</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>0.05</v>
-      </c>
-      <c r="N41">
-        <v>0.46</v>
       </c>
       <c r="O41">
         <v>0.46</v>
       </c>
       <c r="P41">
+        <v>0.46</v>
+      </c>
+      <c r="Q41">
         <v>30.46</v>
-      </c>
-      <c r="Q41">
-        <v>0.01</v>
       </c>
       <c r="R41">
         <v>0.01</v>
@@ -6618,10 +6636,13 @@
       <c r="T41">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="U41">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B42">
         <v>12.05</v>
@@ -6651,22 +6672,22 @@
         <v>-0.77</v>
       </c>
       <c r="L42">
+        <v>157.52</v>
+      </c>
+      <c r="M42">
         <v>156.75</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>19.05</v>
-      </c>
-      <c r="N42">
-        <v>137.7</v>
       </c>
       <c r="O42">
         <v>137.7</v>
       </c>
       <c r="P42">
+        <v>137.7</v>
+      </c>
+      <c r="Q42">
         <v>30.46</v>
-      </c>
-      <c r="Q42">
-        <v>4.52</v>
       </c>
       <c r="R42">
         <v>4.52</v>
@@ -6677,10 +6698,13 @@
       <c r="T42">
         <v>4.52</v>
       </c>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="U42">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B43">
         <v>11.92</v>
@@ -6709,31 +6733,31 @@
       <c r="K43">
         <v>-0.01</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>-0.01</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>0.05</v>
-      </c>
-      <c r="N43">
-        <v>-0.06</v>
       </c>
       <c r="O43">
         <v>-0.06</v>
       </c>
       <c r="P43">
+        <v>-0.06</v>
+      </c>
+      <c r="Q43">
         <v>30.46</v>
       </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B44">
         <v>12.43</v>
@@ -6763,22 +6787,22 @@
         <v>-0.39</v>
       </c>
       <c r="L44">
+        <v>-0.43</v>
+      </c>
+      <c r="M44">
         <v>-0.82</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>0.17</v>
-      </c>
-      <c r="N44">
-        <v>-0.99</v>
       </c>
       <c r="O44">
         <v>-0.99</v>
       </c>
       <c r="P44">
+        <v>-0.99</v>
+      </c>
+      <c r="Q44">
         <v>30.46</v>
-      </c>
-      <c r="Q44">
-        <v>-0.03</v>
       </c>
       <c r="R44">
         <v>-0.03</v>
@@ -6789,10 +6813,13 @@
       <c r="T44">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="U44">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B45">
         <v>8.85</v>
@@ -6821,20 +6848,17 @@
       <c r="K45">
         <v>0.25</v>
       </c>
-      <c r="L45">
-        <v>0.25</v>
-      </c>
-      <c r="N45">
+      <c r="M45">
         <v>0.25</v>
       </c>
       <c r="O45">
         <v>0.25</v>
       </c>
       <c r="P45">
+        <v>0.25</v>
+      </c>
+      <c r="Q45">
         <v>30.46</v>
-      </c>
-      <c r="Q45">
-        <v>0.01</v>
       </c>
       <c r="R45">
         <v>0.01</v>
@@ -6845,10 +6869,13 @@
       <c r="T45">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="U45">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B46">
         <v>13.57</v>
@@ -6878,22 +6905,22 @@
         <v>0.27</v>
       </c>
       <c r="L46">
+        <v>0.8</v>
+      </c>
+      <c r="M46">
         <v>1.07</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>0.18</v>
-      </c>
-      <c r="N46">
-        <v>0.89</v>
       </c>
       <c r="O46">
         <v>0.89</v>
       </c>
       <c r="P46">
+        <v>0.89</v>
+      </c>
+      <c r="Q46">
         <v>30.46</v>
-      </c>
-      <c r="Q46">
-        <v>0.03</v>
       </c>
       <c r="R46">
         <v>0.03</v>
@@ -6904,10 +6931,13 @@
       <c r="T46">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="U46">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B47">
         <v>12.41</v>
@@ -6937,22 +6967,22 @@
         <v>0.86</v>
       </c>
       <c r="L47">
+        <v>-0.3</v>
+      </c>
+      <c r="M47">
         <v>0.5600000000000001</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>-1.42</v>
-      </c>
-      <c r="N47">
-        <v>1.98</v>
       </c>
       <c r="O47">
         <v>1.98</v>
       </c>
       <c r="P47">
+        <v>1.98</v>
+      </c>
+      <c r="Q47">
         <v>30.46</v>
-      </c>
-      <c r="Q47">
-        <v>0.06</v>
       </c>
       <c r="R47">
         <v>0.06</v>
@@ -6961,6 +6991,9 @@
         <v>0.06</v>
       </c>
       <c r="T47">
+        <v>0.06</v>
+      </c>
+      <c r="U47">
         <v>0.06</v>
       </c>
     </row>
@@ -6979,114 +7012,114 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="R2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:18">
